--- a/study1/presentation_for_paper/study1_analysis_result_reporting.xlsx
+++ b/study1/presentation_for_paper/study1_analysis_result_reporting.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="292" documentId="8_{62C6A528-0732-4084-A9E0-E3102855FE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C9404B6-DD24-45D8-AFB3-AF7586893386}"/>
+  <xr:revisionPtr revIDLastSave="308" documentId="8_{62C6A528-0732-4084-A9E0-E3102855FE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4D4A888-BDE9-4E89-9854-6B531D3513E2}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{93274C08-A54E-43F7-A053-151328439939}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{93274C08-A54E-43F7-A053-151328439939}"/>
   </bookViews>
   <sheets>
-    <sheet name="total_accuracy" sheetId="1" r:id="rId1"/>
-    <sheet name="accuracy_ac_pradig" sheetId="2" r:id="rId2"/>
+    <sheet name="accuracy_ac_pradig" sheetId="2" r:id="rId1"/>
+    <sheet name="total_accuracy" sheetId="1" r:id="rId2"/>
     <sheet name="f1" sheetId="3" r:id="rId3"/>
+    <sheet name="png_version" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -142,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -396,7 +397,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -415,9 +416,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -451,43 +449,43 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -514,17 +512,23 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="3" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -542,6 +546,198 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D75B0BE-1615-6EBB-E90F-9BB2016F954B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="127000" y="82550"/>
+          <a:ext cx="9232900" cy="1473200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F37DDF8-64E1-6017-E00E-F8CA8035C303}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="1708150"/>
+          <a:ext cx="5048250" cy="927100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{348A1A3F-B6ED-1316-B6A8-D550E3409CF5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="133350" y="2851150"/>
+          <a:ext cx="8039100" cy="2292350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,11 +1056,142 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321A6184-2200-440F-96AF-F1E8904D4166}">
+  <dimension ref="B2:G7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="7" width="19.58203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7">
+      <c r="B2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="2:7" ht="43.5">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D4" s="17">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E4" s="17">
+        <v>0.629</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.748</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.78800000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.75800000000000001</v>
+      </c>
+      <c r="E6" s="17">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0.65700000000000003</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="E7" s="17">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F7" s="17">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6FCE22-8A3D-444E-8EFA-2E771EA08BB0}">
   <dimension ref="B2:K31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F6" sqref="B3:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -877,22 +1204,22 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="29">
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="43" t="s">
         <v>3</v>
       </c>
     </row>
@@ -900,16 +1227,16 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>0.14199999999999999</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.218</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>0.29199999999999998</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="6">
         <f>1-E4</f>
         <v>0.70799999999999996</v>
       </c>
@@ -918,16 +1245,16 @@
       <c r="B5" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.248</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>0.51</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <f t="shared" ref="F5:F6" si="0">1-E5</f>
         <v>0.49</v>
       </c>
@@ -936,16 +1263,16 @@
       <c r="B6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="6">
         <f t="shared" si="0"/>
         <v>0.48699999999999999</v>
       </c>
@@ -998,137 +1325,6 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321A6184-2200-440F-96AF-F1E8904D4166}">
-  <dimension ref="B2:G7"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:G3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="7" width="19.58203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="2:7" ht="43.5">
-      <c r="B3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="D4" s="18">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0.629</v>
-      </c>
-      <c r="F4" s="18">
-        <v>0.748</v>
-      </c>
-      <c r="G4" s="18">
-        <v>0.78800000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18">
-        <v>0.86</v>
-      </c>
-      <c r="D5" s="18">
-        <v>0.74399999999999999</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="18">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="G5" s="18">
-        <v>0.58199999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="18">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="D6" s="18">
-        <v>0.75800000000000001</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="G6" s="18">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="18">
-        <v>0.65700000000000003</v>
-      </c>
-      <c r="D7" s="18">
-        <v>0.71899999999999997</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="F7" s="18">
-        <v>0.61399999999999999</v>
-      </c>
-      <c r="G7" s="18">
-        <v>0.61099999999999999</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -1140,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9F07DC2-1897-4205-8E45-F6751A27F59A}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1152,7 +1348,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C2" s="3"/>
@@ -1166,308 +1362,308 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="33" t="s">
+      <c r="E3" s="33"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="34"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="38" t="s">
+      <c r="J4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="12" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <v>0.59499999999999997</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>0.80300000000000005</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="20">
         <v>0.68300000000000005</v>
       </c>
-      <c r="F5" s="25">
+      <c r="F5" s="24">
         <v>0.754</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="25">
         <v>0.73699999999999999</v>
       </c>
-      <c r="H5" s="27">
+      <c r="H5" s="26">
         <v>0.746</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>0.78800000000000003</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="38">
         <v>0.78800000000000003</v>
       </c>
-      <c r="K5" s="40">
+      <c r="K5" s="39">
         <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <v>0.7</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="19">
         <v>0.45700000000000002</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="20">
         <v>0.55300000000000005</v>
       </c>
-      <c r="F6" s="25">
+      <c r="F6" s="24">
         <v>0.74299999999999999</v>
       </c>
-      <c r="G6" s="26">
+      <c r="G6" s="25">
         <v>0.76</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="26">
         <v>0.751</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>0.78800000000000003</v>
       </c>
-      <c r="J6" s="39">
+      <c r="J6" s="38">
         <v>0.78800000000000003</v>
       </c>
-      <c r="K6" s="40">
+      <c r="K6" s="39">
         <v>0.78800000000000003</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <v>0.499</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="19">
         <v>0.99399999999999999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="20">
         <v>0.66500000000000004</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>0.53900000000000003</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="25">
         <v>0.98699999999999999</v>
       </c>
-      <c r="H7" s="27">
+      <c r="H7" s="26">
         <v>0.69799999999999995</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>0.54500000000000004</v>
       </c>
-      <c r="J7" s="39">
+      <c r="J7" s="38">
         <v>0.997</v>
       </c>
-      <c r="K7" s="40">
+      <c r="K7" s="39">
         <v>0.70399999999999996</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <v>0.6</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="19">
         <v>0.01</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="20">
         <v>1.9E-2</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>0.92500000000000004</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="25">
         <v>0.157</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="26">
         <v>0.26800000000000002</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>0.98099999999999998</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="38">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K8" s="40">
+      <c r="K8" s="39">
         <v>0.28499999999999998</v>
       </c>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <v>0.73699999999999999</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="19">
         <v>0.63400000000000001</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="20">
         <v>0.68200000000000005</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>0.755</v>
       </c>
-      <c r="G9" s="26">
+      <c r="G9" s="25">
         <v>0.878</v>
       </c>
-      <c r="H9" s="27">
+      <c r="H9" s="26">
         <v>0.81200000000000006</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="38">
         <v>0.84099999999999997</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="38">
         <v>0.81399999999999995</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="39">
         <v>0.82699999999999996</v>
       </c>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <v>0.68100000000000005</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="19">
         <v>0.77500000000000002</v>
       </c>
-      <c r="E10" s="21">
+      <c r="E10" s="20">
         <v>0.72499999999999998</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>0.85399999999999998</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="25">
         <v>0.71499999999999997</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="26">
         <v>0.77800000000000002</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <v>0.82</v>
       </c>
-      <c r="J10" s="39">
+      <c r="J10" s="38">
         <v>0.84599999999999997</v>
       </c>
-      <c r="K10" s="40">
+      <c r="K10" s="39">
         <v>0.83299999999999996</v>
       </c>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <v>0.78800000000000003</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="19">
         <v>8.4000000000000005E-2</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="20">
         <v>0.152</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>0.86599999999999999</v>
       </c>
-      <c r="G11" s="26">
+      <c r="G11" s="25">
         <v>0.26900000000000002</v>
       </c>
-      <c r="H11" s="27">
+      <c r="H11" s="26">
         <v>0.41099999999999998</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="38">
         <v>0.97299999999999998</v>
       </c>
-      <c r="J11" s="39">
+      <c r="J11" s="38">
         <v>0.22800000000000001</v>
       </c>
-      <c r="K11" s="40">
+      <c r="K11" s="39">
         <v>0.36899999999999999</v>
       </c>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="21">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>0.97699999999999998</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>0.67600000000000005</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>0.56699999999999995</v>
       </c>
-      <c r="G12" s="29">
+      <c r="G12" s="28">
         <v>0.95799999999999996</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H12" s="29">
         <v>0.71299999999999997</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="40">
         <v>0.56299999999999994</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="40">
         <v>0.99399999999999999</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <v>0.71799999999999997</v>
       </c>
     </row>
@@ -1475,4 +1671,20 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D8137-4471-4914-8DB4-C6FCB0424C04}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/study1/presentation_for_paper/study1_analysis_result_reporting.xlsx
+++ b/study1/presentation_for_paper/study1_analysis_result_reporting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d319992da703ee6/Desktop/Master Thesis/master_thesis/study1/presentation_for_paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="561" documentId="8_{62C6A528-0732-4084-A9E0-E3102855FE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{348265B9-B412-4B77-A4CC-2A68815F0521}"/>
+  <xr:revisionPtr revIDLastSave="619" documentId="8_{62C6A528-0732-4084-A9E0-E3102855FE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F24E555E-2495-44E2-9787-B47E967198EB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{93274C08-A54E-43F7-A053-151328439939}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="39">
   <si>
     <t>1st</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>GPT3.5</t>
-  </si>
-  <si>
-    <t>Introversion/Extraversion</t>
-  </si>
-  <si>
-    <t>Sensing/Intuitive</t>
-  </si>
-  <si>
-    <t>Thinking/Feeling</t>
-  </si>
-  <si>
-    <t>Judging/Perceiving</t>
   </si>
   <si>
     <t>DICHOTOMY CLASSIFICATION ACCURACY ACROSS PARADIGMS</t>
@@ -146,14 +134,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Resampled Based on Sample Distribution</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Resampled to Have Uniform Count Per Type</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Uniformed Distribution</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -168,6 +148,34 @@
   </si>
   <si>
     <t>Model</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strategy 1 (Sample Distribution)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strategy 2 (Uniformed Distribution)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Strategy 2 (Uniform Count Per Type)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Extroversion (E) - Introverion(I)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Sensing (S) - Intuitive (N)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Thinking (T) - Feeling (F)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Judging (J) - Perceiving (P)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -178,7 +186,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +258,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,147 +319,159 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -467,128 +493,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>520700</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4FBE8AF-5972-F0D5-C509-C36B56B07583}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="95250" y="63500"/>
-          <a:ext cx="10991850" cy="1778000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C0169F9-6C8E-4EF4-5645-CED7FC134F24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="88900" y="2025650"/>
-          <a:ext cx="7467600" cy="1219200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -616,7 +520,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -650,7 +554,133 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E81A0B13-E1E4-D044-E154-1A95D7A6677B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="142875" y="2008187"/>
+          <a:ext cx="7380287" cy="1227138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182563</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>398462</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>3176</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C92148E-BDD4-2639-14BB-5878DA6CDC05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="182563" y="55563"/>
+          <a:ext cx="10098087" cy="1789113"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -973,26 +1003,26 @@
   <dimension ref="C2:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O3" sqref="B3:O11"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="3.83203125" style="5" customWidth="1"/>
     <col min="2" max="2" width="0.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="21.4140625" style="5" customWidth="1"/>
-    <col min="4" max="6" width="15.9140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="27.25" style="5" customWidth="1"/>
+    <col min="4" max="6" width="13" style="5" customWidth="1"/>
     <col min="7" max="7" width="0.58203125" style="5" customWidth="1"/>
-    <col min="8" max="10" width="12.08203125" style="5" customWidth="1"/>
+    <col min="8" max="10" width="10.58203125" style="5" customWidth="1"/>
     <col min="11" max="11" width="0.9140625" style="5" customWidth="1"/>
-    <col min="12" max="14" width="12" style="5" customWidth="1"/>
+    <col min="12" max="14" width="10.6640625" style="5" customWidth="1"/>
     <col min="15" max="15" width="0.58203125" style="5" customWidth="1"/>
     <col min="16" max="16384" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:14">
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2" s="6"/>
     </row>
@@ -1001,78 +1031,78 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="3:14" ht="18" customHeight="1">
-      <c r="C4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="C4" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" spans="3:14" ht="26.5" customHeight="1">
-      <c r="C5" s="16"/>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>26</v>
+      <c r="C5" s="40"/>
+      <c r="D5" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="46" t="s">
+        <v>22</v>
       </c>
       <c r="G5" s="9"/>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
+      <c r="L5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" spans="3:14" ht="30.5" customHeight="1">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="19" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="19" t="s">
+      <c r="I6" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="50"/>
+      <c r="L6" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="20" t="s">
-        <v>23</v>
+      <c r="M6" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="49" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="3:14">
       <c r="C7" s="7" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="D7" s="8">
         <v>0.78</v>
@@ -1090,7 +1120,9 @@
       <c r="I7" s="8">
         <v>0.71899999999999997</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="8">
+        <v>0.72699999999999998</v>
+      </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8">
         <v>0.629</v>
@@ -1104,7 +1136,7 @@
     </row>
     <row r="8" spans="3:14">
       <c r="C8" s="7" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="D8" s="8">
         <v>0.77500000000000002</v>
@@ -1122,7 +1154,9 @@
       <c r="I8" s="8">
         <v>0.88400000000000001</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="8">
+        <v>0.88900000000000001</v>
+      </c>
       <c r="K8" s="8"/>
       <c r="L8" s="8">
         <v>0.5</v>
@@ -1136,7 +1170,7 @@
     </row>
     <row r="9" spans="3:14">
       <c r="C9" s="7" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D9" s="8">
         <v>0.80800000000000005</v>
@@ -1154,7 +1188,9 @@
       <c r="I9" s="8">
         <v>0.79600000000000004</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="8">
+        <v>0.86499999999999999</v>
+      </c>
       <c r="K9" s="8"/>
       <c r="L9" s="8">
         <v>0.70499999999999996</v>
@@ -1167,34 +1203,36 @@
       </c>
     </row>
     <row r="10" spans="3:14">
-      <c r="C10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="14">
+      <c r="C10" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="13">
         <v>0.66300000000000003</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>0.65700000000000003</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>0.71899999999999997</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14">
+      <c r="G10" s="13"/>
+      <c r="H10" s="13">
         <v>0.61699999999999999</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <v>0.67</v>
       </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14">
+      <c r="J10" s="13">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13">
         <v>0.53100000000000003</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="13">
         <v>0.61399999999999999</v>
       </c>
-      <c r="N10" s="14">
+      <c r="N10" s="13">
         <v>0.61099999999999999</v>
       </c>
     </row>
@@ -1220,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6FCE22-8A3D-444E-8EFA-2E771EA08BB0}">
-  <dimension ref="B2:T33"/>
+  <dimension ref="B2:T34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D21" sqref="A19:D21"/>
+      <selection activeCell="I18" sqref="I18:T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1245,7 +1283,7 @@
   <sheetData>
     <row r="2" spans="2:11">
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -1255,18 +1293,18 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="2:11" s="22" customFormat="1" ht="28">
-      <c r="B4" s="21"/>
-      <c r="C4" s="20" t="s">
+    <row r="4" spans="2:11" s="19" customFormat="1" ht="28">
+      <c r="B4" s="18"/>
+      <c r="C4" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1274,322 +1312,339 @@
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>0.23</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>0.314</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>0.48599999999999999</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <f>1-E5</f>
         <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="24">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21">
         <v>0.373</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="21">
         <v>0.48599999999999999</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>0.61699999999999999</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <f t="shared" ref="F6" si="0">1-E6</f>
         <v>0.38300000000000001</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="27"/>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="5" customHeight="1">
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="2:11" ht="28">
-      <c r="B11" s="28"/>
-      <c r="C11" s="20" t="s">
+      <c r="B7" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="23">
+        <v>0.41</v>
+      </c>
+      <c r="D7" s="23">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E7" s="23">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="4.5" customHeight="1"/>
+    <row r="10" spans="2:11">
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="5" customHeight="1">
+      <c r="B11" s="6"/>
+    </row>
+    <row r="12" spans="2:11" ht="28">
+      <c r="B12" s="25"/>
+      <c r="C12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="20" t="s">
+      <c r="E12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="23">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.218</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="F12" s="23">
-        <f>1-E12</f>
-        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="24">
+        <v>3</v>
+      </c>
+      <c r="C13" s="20">
+        <v>0.14199999999999999</v>
+      </c>
+      <c r="D13" s="20">
+        <v>0.218</v>
+      </c>
+      <c r="E13" s="20">
+        <v>0.29199999999999998</v>
+      </c>
+      <c r="F13" s="20">
+        <f>1-E13</f>
+        <v>0.70799999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="21">
         <v>0.248</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D14" s="21">
         <v>0.40699999999999997</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E14" s="21">
         <v>0.51</v>
       </c>
-      <c r="F13" s="23">
-        <f t="shared" ref="F13:F14" si="1">1-E13</f>
+      <c r="F14" s="20">
+        <f t="shared" ref="F14:F15" si="1">1-E14</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="14" spans="2:11">
-      <c r="B14" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="26">
+    <row r="15" spans="2:11">
+      <c r="B15" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="23">
         <v>0.25800000000000001</v>
       </c>
-      <c r="D14" s="26">
+      <c r="D15" s="23">
         <v>0.42299999999999999</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E15" s="23">
         <v>0.51300000000000001</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F15" s="24">
         <f t="shared" si="1"/>
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="3.5" customHeight="1"/>
-    <row r="17" spans="5:20" ht="4" customHeight="1"/>
-    <row r="18" spans="5:20" ht="18" customHeight="1">
-      <c r="J18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="37"/>
-      <c r="L18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="38"/>
-      <c r="Q18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-    </row>
-    <row r="19" spans="5:20" ht="28">
-      <c r="J19" s="17"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="20" t="s">
+    <row r="16" spans="2:11" ht="3.5" customHeight="1"/>
+    <row r="18" spans="10:20" ht="4" customHeight="1"/>
+    <row r="19" spans="10:20" ht="18" customHeight="1">
+      <c r="J19" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K19" s="14"/>
+      <c r="L19" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+    </row>
+    <row r="20" spans="10:20" ht="28">
+      <c r="J20" s="41"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="20" t="s">
+      <c r="M20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="O19" s="20" t="s">
+      <c r="N20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="20" t="s">
+      <c r="P20" s="6"/>
+      <c r="Q20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="R19" s="20" t="s">
+      <c r="R20" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="S19" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="20" t="s">
+      <c r="S20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T20" s="17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:20">
-      <c r="J20" s="5" t="s">
+    <row r="21" spans="10:20">
+      <c r="J21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="33">
+      <c r="L21" s="29">
         <v>0.23</v>
       </c>
-      <c r="M20" s="33">
+      <c r="M21" s="29">
         <v>0.314</v>
       </c>
-      <c r="N20" s="33">
+      <c r="N21" s="29">
         <v>0.48599999999999999</v>
       </c>
-      <c r="O20" s="33">
-        <f>1-N20</f>
+      <c r="O21" s="29">
+        <f>1-N21</f>
         <v>0.51400000000000001</v>
       </c>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="33">
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29">
         <v>0.14199999999999999</v>
       </c>
-      <c r="R20" s="33">
+      <c r="R21" s="29">
         <v>0.218</v>
       </c>
-      <c r="S20" s="33">
+      <c r="S21" s="29">
         <v>0.29199999999999998</v>
       </c>
-      <c r="T20" s="33">
-        <f>1-S20</f>
+      <c r="T21" s="29">
+        <f>1-S21</f>
         <v>0.70799999999999996</v>
       </c>
     </row>
-    <row r="21" spans="5:20">
-      <c r="J21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="34">
+    <row r="22" spans="10:20">
+      <c r="J22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="30">
         <v>0.373</v>
       </c>
-      <c r="M21" s="34">
+      <c r="M22" s="30">
         <v>0.48599999999999999</v>
       </c>
-      <c r="N21" s="34">
+      <c r="N22" s="30">
         <v>0.61699999999999999</v>
       </c>
-      <c r="O21" s="33">
-        <f t="shared" ref="O21" si="2">1-N21</f>
+      <c r="O22" s="29">
+        <f t="shared" ref="O22" si="2">1-N22</f>
         <v>0.38300000000000001</v>
       </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="34">
+      <c r="P22" s="29"/>
+      <c r="Q22" s="30">
         <v>0.248</v>
       </c>
-      <c r="R21" s="34">
+      <c r="R22" s="30">
         <v>0.40699999999999997</v>
       </c>
-      <c r="S21" s="34">
+      <c r="S22" s="30">
         <v>0.51</v>
       </c>
-      <c r="T21" s="33">
-        <f t="shared" ref="T21:T22" si="3">1-S21</f>
+      <c r="T22" s="29">
+        <f t="shared" ref="T22:T23" si="3">1-S22</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="22" spans="5:20">
-      <c r="J22" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="35">
+    <row r="23" spans="10:20">
+      <c r="J23" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="31">
+        <v>0.41</v>
+      </c>
+      <c r="M23" s="31">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="N23" s="31">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="O23" s="32">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="31">
         <v>0.25800000000000001</v>
       </c>
-      <c r="R22" s="35">
+      <c r="R23" s="31">
         <v>0.42299999999999999</v>
       </c>
-      <c r="S22" s="35">
+      <c r="S23" s="31">
         <v>0.51300000000000001</v>
       </c>
-      <c r="T22" s="36">
+      <c r="T23" s="32">
         <f t="shared" si="3"/>
         <v>0.48699999999999999</v>
       </c>
     </row>
-    <row r="23" spans="5:20" ht="3.5" customHeight="1"/>
-    <row r="25" spans="5:20">
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-    </row>
-    <row r="26" spans="5:20">
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-    </row>
-    <row r="27" spans="5:20">
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-    </row>
-    <row r="28" spans="5:20">
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-    </row>
-    <row r="29" spans="5:20">
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-    </row>
-    <row r="30" spans="5:20">
-      <c r="J30" s="29"/>
-      <c r="K30" s="29"/>
-      <c r="L30" s="29"/>
-    </row>
-    <row r="31" spans="5:20">
-      <c r="J31" s="29"/>
-      <c r="K31" s="29"/>
-      <c r="L31" s="29"/>
-    </row>
-    <row r="32" spans="5:20">
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="29"/>
-      <c r="L32" s="29"/>
+    <row r="24" spans="10:20" ht="3.5" customHeight="1"/>
+    <row r="26" spans="10:20">
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+    </row>
+    <row r="27" spans="10:20">
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="10:20">
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="10:20">
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="10:20">
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="10:20">
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="10:20">
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
     </row>
     <row r="33" spans="5:12">
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-      <c r="K33" s="29"/>
-      <c r="L33" s="29"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="5:12">
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="Q18:T18"/>
-    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="Q19:T19"/>
+    <mergeCell ref="J19:J20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1620,7 +1675,7 @@
   <sheetData>
     <row r="2" spans="2:14">
       <c r="B2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1629,64 +1684,64 @@
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1">
-      <c r="B4" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43" t="s">
+      <c r="B4" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="36"/>
+      <c r="D4" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="43"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="45" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="45"/>
+      <c r="N4" s="45"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="45"/>
-      <c r="L5" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>12</v>
+      <c r="C5" s="38"/>
+      <c r="D5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="38"/>
+      <c r="L5" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="37" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="4">
@@ -1721,7 +1776,7 @@
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4">
@@ -1756,7 +1811,7 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="4">
@@ -1791,7 +1846,7 @@
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="4">
@@ -1826,7 +1881,7 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="4">
@@ -1861,7 +1916,7 @@
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4">
@@ -1896,7 +1951,7 @@
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="4">
@@ -1930,37 +1985,37 @@
       </c>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="39">
+      <c r="B13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="34">
         <v>0.51600000000000001</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="34">
         <v>0.97699999999999998</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="34">
         <v>0.67600000000000005</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39">
+      <c r="G13" s="34"/>
+      <c r="H13" s="34">
         <v>0.56699999999999995</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="34">
         <v>0.95799999999999996</v>
       </c>
-      <c r="J13" s="39">
+      <c r="J13" s="34">
         <v>0.71299999999999997</v>
       </c>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39">
+      <c r="K13" s="34"/>
+      <c r="L13" s="34">
         <v>0.56299999999999994</v>
       </c>
-      <c r="M13" s="39">
+      <c r="M13" s="34">
         <v>0.99399999999999999</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="34">
         <v>0.71799999999999997</v>
       </c>
     </row>
@@ -1981,8 +2036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F05D8137-4471-4914-8DB4-C6FCB0424C04}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
